--- a/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_male_50_vs_3_UP0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_male_50_vs_3_UP0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,37 +38,919 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">Ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRE16</t>
   </si>
   <si>
-    <t xml:space="preserve">up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG8369</t>
+    <t xml:space="preserve">MtnA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vir-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG16743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnxB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugt35b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR17025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apolpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msr-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rh2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR31781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ced-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR42491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR31044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His2B:CG33868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irk3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sod3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prx2540-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idgf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mfas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mmp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR40469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp28d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp28a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pcyt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listericin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rac2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalisin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp9f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpL22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp12e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ninaA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clect27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp4aa1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hnf4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spn43Ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drsl5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snoRNA:Psi28S-2179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pabp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EbpIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galphai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa-maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xrp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14945</t>
   </si>
   <si>
     <t xml:space="preserve">CG9686</t>
   </si>
   <si>
-    <t xml:space="preserve">CAH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsf1</t>
+    <t xml:space="preserve">GstE7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RhoGAP18B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tret1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snRNA:7SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oatp58Dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoe1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp4g15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MtnB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlcAT-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DptA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invadolysin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG40470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CecA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wtrw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pkn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClC-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodh-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCHa1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slc45-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG44325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inx2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l(1)G0193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ork1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sap-r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNMa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp6a17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inx3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jheh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANATL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dh44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11899</t>
   </si>
   <si>
     <t xml:space="preserve">CG31705</t>
   </si>
   <si>
-    <t xml:space="preserve">vir-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MtnA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG15209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG15201</t>
+    <t xml:space="preserve">ver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mal-A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jheh1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TwdlG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lsd-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HmgD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp4ac3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG44102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rip11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dgp-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p38a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyp12a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let-7-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugt86Dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDAC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spn77Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betaggt-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gpb5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irbp18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG16947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43468</t>
   </si>
 </sst>
 </file>
@@ -431,22 +1313,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>30.5782304632375</v>
+        <v>3097.92291004767</v>
       </c>
       <c r="C2" t="n">
-        <v>2.7876420447638</v>
+        <v>5.60579105787112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0617484518723054</v>
+        <v>0.435647676886307</v>
       </c>
       <c r="E2" t="n">
-        <v>45.1451325537454</v>
+        <v>12.8677170917959</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0000000000000000000000000000000000000683938706534675</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.000000000000000000000000000000000555358229706156</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -457,22 +1339,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>3.77650063392208</v>
+        <v>23918.4410893166</v>
       </c>
       <c r="C3" t="n">
-        <v>1.50421931499275</v>
+        <v>3.62386306852345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0654313134380774</v>
+        <v>0.368728026907074</v>
       </c>
       <c r="E3" t="n">
-        <v>22.9892880939385</v>
+        <v>9.8280109025635</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000596595634562778</v>
+        <v>0.0000000000000000000000852865965964985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000484435655264976</v>
+        <v>0.000000000000000000346263582181784</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -483,22 +1365,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>2.26493193088585</v>
+        <v>550.656101846685</v>
       </c>
       <c r="C4" t="n">
-        <v>1.45681791034751</v>
+        <v>4.08671323350929</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0651893500921144</v>
+        <v>0.436492912330988</v>
       </c>
       <c r="E4" t="n">
-        <v>22.347483266653</v>
+        <v>9.36261075050488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127744061168218</v>
+        <v>0.00000000000000000000777903173908584</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000923607061432681</v>
+        <v>0.0000000000000000210552459071257</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -509,22 +1391,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>2.60389865043604</v>
+        <v>693.558784820745</v>
       </c>
       <c r="C5" t="n">
-        <v>1.31755569217792</v>
+        <v>11.873294108328</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0599268603104343</v>
+        <v>1.46766192314324</v>
       </c>
       <c r="E5" t="n">
-        <v>21.9860624326503</v>
+        <v>8.08993809889089</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000391523784647624</v>
+        <v>0.000000000000000596950619261171</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000248971389803634</v>
+        <v>0.000000000000969447805680142</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -535,22 +1417,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>2.26107888831272</v>
+        <v>180.140826839583</v>
       </c>
       <c r="C6" t="n">
-        <v>1.38022600547793</v>
+        <v>8.92390284459537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0633260664653294</v>
+        <v>1.17282270708042</v>
       </c>
       <c r="E6" t="n">
-        <v>21.7955430128224</v>
+        <v>7.60891035850611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000255741300877104</v>
+        <v>0.0000000000000276416375474262</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000156953789073181</v>
+        <v>0.0000000000374083494808501</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -561,22 +1443,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>2.71354349089171</v>
+        <v>190.614411623477</v>
       </c>
       <c r="C7" t="n">
-        <v>1.32311725665918</v>
+        <v>4.55667924575425</v>
       </c>
       <c r="D7" t="n">
-        <v>0.062804085407232</v>
+        <v>0.60077317285594</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0673756027155</v>
+        <v>7.58469161346341</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000158474603322194</v>
+        <v>0.0000000000000333278799672673</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000820028388563273</v>
+        <v>0.00000000003866034076203</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -587,22 +1469,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>2.10435399663779</v>
+        <v>644.551679209678</v>
       </c>
       <c r="C8" t="n">
-        <v>1.13386734555575</v>
+        <v>3.11814111642635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0574225015228281</v>
+        <v>0.414311750733502</v>
       </c>
       <c r="E8" t="n">
-        <v>19.7460458093242</v>
+        <v>7.52607453422682</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000867501841229902</v>
+        <v>0.0000000000000522884996467432</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000035220574753934</v>
+        <v>0.0000000000530728271414444</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -613,22 +1495,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1.68678574247701</v>
+        <v>1060.70124236364</v>
       </c>
       <c r="C9" t="n">
-        <v>1.00249833642985</v>
+        <v>3.58697816326395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0562534763751713</v>
+        <v>0.482397610270996</v>
       </c>
       <c r="E9" t="n">
-        <v>17.8210912645449</v>
+        <v>7.43572954527884</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000484814603112761</v>
+        <v>0.000000000000103992411773293</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000149640437147904</v>
+        <v>0.0000000000938242648443489</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -639,22 +1521,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>2.8726112557443</v>
+        <v>445.632071553148</v>
       </c>
       <c r="C10" t="n">
-        <v>1.09486871170999</v>
+        <v>3.09371218058967</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0623539259725582</v>
+        <v>0.452133848451543</v>
       </c>
       <c r="E10" t="n">
-        <v>17.5589378637015</v>
+        <v>6.842469749135</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000508172097453045</v>
+        <v>0.00000000000778393466075215</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000147369908261383</v>
+        <v>0.00000000632055494453075</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -665,24 +1547,7668 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>1.98435236810189</v>
+        <v>385.707076880609</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0529795857755</v>
+        <v>3.30248900136823</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0602543874979714</v>
+        <v>0.508475616966811</v>
       </c>
       <c r="E11" t="n">
-        <v>17.4755670001782</v>
+        <v>6.49488174294065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000219948267902769</v>
+        <v>0.0000000000830986597279305</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000630916824995009</v>
+        <v>0.0000000562300930825663</v>
       </c>
       <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1305.55830554899</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.19006223891801</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.497054051093875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.41793831455067</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.00000000013813220074997</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0000000862794976992123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>680.479670246818</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.07680538341357</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.48032771068754</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.40563789045075</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.000000000149741979546245</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0000000868503481368219</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>348.744559301026</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.27500695786746</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.533673418268729</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.13672490657637</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.000000000842400728897993</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.000000448624527660064</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>380.050953074866</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.89788445832196</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.472810467127362</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.12906155806688</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000000000883989217064166</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.000000448624527660064</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>491.686301366178</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.78486102567441</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.455557425742292</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.11308447258151</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000000000977236081438671</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.000000466773940075412</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74.6800252187845</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.0955384413027</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.65458310139202</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.10156022553911</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0000000010503804734672</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.000000473838302475204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>113.19289378875</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.60356748798804</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.757515549424645</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.07719206752203</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0000000012230523894121</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.000000522693968527696</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>120.550516973954</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.33710401925535</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.55412661135976</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.00794295072651</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00000000187891926881677</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.000000762841223139607</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>419.916649188108</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.22842931835385</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.56271667347127</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.73721993776799</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00000000962432420064217</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.00000340466108602166</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>236.30686463254</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.20237997479246</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.558209491741665</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.73687839810953</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00000000964374445548006</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00000340466108602166</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>124.880309029228</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.07317435384824</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.713473686135898</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.70893423681558</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0000000113685804309624</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0000038463697124756</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n">
+        <v>331.112605975601</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.04618221728147</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.547490676308059</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.56389788739975</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0000000263814355541014</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00000856869026797213</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n">
+        <v>300.959887543359</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.69481170951196</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.49137067519795</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.4842745925494</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0000000415169471612899</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0000129660619596028</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>691.1696050192</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.67433006099993</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.490178306146891</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.45583112810896</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0000000487443024534683</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0000146593976267468</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>142.353483112448</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.41401353263319</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.627269076074107</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.44266194979753</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.000000052490201842577</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0000152221585343473</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>142.960068216766</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.42246335872244</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.637415657116766</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.36928034401184</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.000000079051454042631</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0000221344071319367</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="n">
+        <v>178.853619017006</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.03110782661981</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.57429816130686</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.27793406080613</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.000000130648457667504</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0000353621825420045</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="n">
+        <v>41.9398692351869</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.26313642294081</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.77807922411434</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.20963087432438</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.000000189216698734853</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.000049562567539581</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>502.801329612582</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.59517302504561</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.499237624640072</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.19827211924704</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.000000201149519344934</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0000510416905337769</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="n">
+        <v>796.24855764662</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.38775518802684</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.46120824506499</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.17717368146872</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00000022527248497605</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0000554306841819856</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="n">
+        <v>622.151634240403</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.3338591427101</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.456936405104977</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.10762354812575</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.000000326235785265289</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0000779127816574748</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="n">
+        <v>331.882542062178</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.96965768954565</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.58287079674269</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.09488158635028</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00000034895929867012</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0000809585572914678</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="n">
+        <v>47.6194776279051</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.40439116668623</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.26557228649126</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.06047045676238</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000000418223260321996</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0000943325798281836</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="n">
+        <v>115.639001520308</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.46178401077529</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.692441371064076</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.99938934245879</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.000000575121671443466</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.000126215891138404</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="n">
+        <v>515.39823907624</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.14349884473251</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.431440811610655</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.96823385050292</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.000000675654529667793</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.000144376704760592</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="n">
+        <v>148.552327055446</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.13804898737367</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.634137322501607</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.94853224376446</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.000000747752045624412</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.000155685810524878</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="n">
+        <v>34.9047943957362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.99823819003541</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.83263059399281</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.91001199015818</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.000000910708243839475</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.000184873773499413</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="n">
+        <v>136.808782231354</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.10483407466147</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.639567540812973</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.85458356863269</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.00000120639987716219</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.000238926024452609</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3896.771217482</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.96002278295075</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.404333355606105</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.8475416528835</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00000125000792826874</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.000241668199465289</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="n">
+        <v>591.901401027861</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.05464327236217</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.424685744291323</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.83803212135311</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.00000131130953181932</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0002476240325203</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>91.3990785509765</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.76074544276594</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.780488136081836</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.81845305380992</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.00000144675557027995</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.000266992164333481</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>32.4695761820802</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.89390102755749</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.85660228131625</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.79041802170582</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.00000166434211961262</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.000300321289138989</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>66.0858187022783</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.17573965421878</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.87926034241244</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.74915045384822</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.00000204272934666031</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.000360586136845254</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>82.6292395741067</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.7861608348079</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.804425967714495</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.70666162799915</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00000251806352671003</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.000435035656103946</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>88.4344595607793</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.54504706243023</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.755368803539095</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.69313406354721</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00000269051045600271</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.000455144685473792</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44.9111121735859</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.28790127531991</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.13354460511499</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.6649256248575</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.00000308728682978428</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.000511607531792824</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>82.8056368127389</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.93118476353316</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.843925254738382</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.65821438742443</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00000318963945881409</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.000517997448111409</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>64.4310153924275</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.09516726503228</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.891350488812499</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.59434006760692</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.00000434120926634526</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.000691188612602422</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>125.429686180697</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.1737928133894</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.715781891448953</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.43402222283761</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.00000924910862234145</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.00141703324553609</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>357.553063597871</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.63201068653706</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.595595671745556</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.41912325995123</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.00000991021163340847</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.00149020219376439</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>73.415200056878</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.60548315054597</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.816975656852135</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.4132075665977</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0000101850261584783</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.00150368022557898</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>516.713666467576</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.41959924270457</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.555016459930629</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.3595089828633</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0000130354603148884</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.00182496444408438</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="n">
+        <v>60.1187368032576</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.05294902240428</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.937567756048622</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.3228331992617</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0000154038193303308</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.00211313325010935</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="n">
+        <v>814.821516494772</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.98187166231463</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.458783652952129</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.31983931764332</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0000156142850993301</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.00211313325010935</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>155.334126498839</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.60063189549611</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.608913338146658</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.27093928244636</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0000194651402995991</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.00259109736447122</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>43.3648176922596</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.59253617552307</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.08156223487555</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.24620611503833</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0000217420635334704</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.00284750896599645</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>35.0930549911842</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.99693894683417</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.41531681733197</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.2371706980343</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0000226354049316239</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.00291745219118708</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>261.368129094446</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.67975126544888</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.635588414856839</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.21617386788347</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0000248482208681449</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.00315261802264589</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>152.246672414478</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.55491181866567</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.607400941040473</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.20630204208957</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0000259583253514891</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.00324279387467833</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>22.7287033274561</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.37932462858254</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.99862455369356</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.1925456249885</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0000275841582474431</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.00339368734801876</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>143.262383219705</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.6667271818639</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.637239052867176</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.18481442696473</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0000285399155986748</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.00345886738300358</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>67.7838098696917</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.88025210515834</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.934399008524003</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.15267147092512</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0000328616348689738</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.00388704494713629</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>559.176642258523</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.9056256631626</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.45902098145771</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.15150012775214</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0000330303080483256</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.00388704494713629</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>92.878869161783</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.13601702377534</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.765314436655484</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.0976843942473</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.000041730371648796</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.00484072311126034</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>56.4271605234011</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.40393470067594</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.07773944412716</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.08627031763006</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0000438363021949786</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.00501339118060882</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>144.120642699234</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.17873511191405</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.784114355473351</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.05391776049697</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0000503669292636553</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.00568027035584557</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>225.4152210235</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.35894910083699</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.585062516018857</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.03196074991917</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0000553134266258814</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0061526715644131</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>51.5084013602348</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.11612742298464</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.02347139985527</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.02173174899339</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0000577718292898628</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.00633928721396873</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>144.868759263379</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.71593045047579</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.676251126963922</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.01615663499026</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0000591549469237555</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0064045089202786</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20.2934851138001</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8.21582456963929</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.05310756883606</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.00165324717835</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.000062901434913762</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.00672052173025984</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>29.9062834656464</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.29970342772712</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.83854513510571</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.9703694450272</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0000717612702019547</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.00749595374090175</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>28.3455581883583</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.21993867680358</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.56690883629059</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.96956002336953</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0000720054669692532</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.00749595374090175</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>74.8883667194826</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.32169806570655</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.84702360381246</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.92161216140325</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0000879584882696962</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.00904079651582194</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>177.133591845901</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.51993142564959</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.645960749166146</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.9010596679481</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0000957725392159676</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.00960090146214391</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>251.398439269653</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.03677100935422</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.525118902138778</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.87868538165085</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.000105022477639016</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0103997868101075</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>48.2131210061725</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.87602443937483</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.00397032680893</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.86069621369644</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.000113064404441867</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0110612405309393</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>303.497393917397</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.25971446061093</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.588613321973496</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.8390474293626</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.000123512571808313</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0119395486081369</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>165.473097940135</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.27030464780739</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.599022636464189</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.79001478342817</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.000150638319177853</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0143903900202843</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>47.4497043374748</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.98480845849993</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.05323432823222</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.78340161508803</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.000154699491188743</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.014606510098286</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>17.5876870986268</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8.0093717729138</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.12922943970144</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.76162926529744</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00016881013917094</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0157454663925535</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>38.0957269606524</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.20907041786446</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.11975181825556</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.75893153218692</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.000170640522480875</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0157454663925535</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>44.7008229950612</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.23715519116803</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.13263737294234</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.74096360617242</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.000183316067173773</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.016725016465742</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>50.409083919058</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.00041921515505</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.07444061179405</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.72325763866589</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.000196668647914779</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.017548894737011</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>53.7215715688726</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.92364733579142</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.05307696549225</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.72588848143437</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.000194628444251266</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.017548894737011</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>98.2970891403315</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.92376449708243</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.78943921156682</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.7035967484812</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.000212564060282716</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0185593566612436</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>224.72708149138</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.61561553719308</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.70602540654958</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.70470455160511</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00021163726498097</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0185593566612436</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4735.93626177644</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.25805300856793</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.342291093050256</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.67538926402393</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.000237487034411868</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.020171104952413</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>389.281203787089</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.24647727926506</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.613568031840839</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.66133364628717</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.000250905754267125</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0210036569551449</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>98.7536756891182</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.57128679314728</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.705672313952228</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.64374050435163</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.000268704334575922</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0222640734362907</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>114.30694819624</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.2091959671266</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.884626620051378</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.6277406697757</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.000285912221577396</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0234505781738228</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>37.9676524578746</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.03916457133608</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.11510300727124</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.62223448865077</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.000292069181213813</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0237160175145616</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>131.523208495636</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.2318086020692</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.630468826623566</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.53991903774451</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.000400249799265862</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0321784987132555</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>24.0960331310045</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.91631971216405</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.67468027773237</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.53280550970312</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.000411174839776296</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0327327421468973</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="n">
+        <v>15.1524688849708</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.79435656146672</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.21791953806283</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.51426479982879</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.000440972988761275</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0344298141225149</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="n">
+        <v>127.227823611251</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.23266901407464</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.641971247105012</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.47783335179406</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.000505484083131613</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0390907690955114</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="n">
+        <v>130.141656956771</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.21510013667345</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.637498244157584</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.47467645122783</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.000511469854245361</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0391805209101163</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="n">
+        <v>68.5371658424509</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.91595918292796</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.842353835589028</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.46167971193357</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.000536815588515857</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0407377811098015</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="n">
+        <v>35.1023509088542</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.95575965557002</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.14869903681357</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.44368675240041</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.000573840132049312</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0431442765948186</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>137.661866345964</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.14275318962262</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.624452751272757</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.43140963868806</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.000600453134609783</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0443243586639222</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="n">
+        <v>279.074722865572</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.69132658780959</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.49280355609593</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.43205029040081</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.00059903646394527</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0443243586639222</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="n">
+        <v>153.784081678809</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.20658257367752</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.644407000055096</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.42420639982008</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.000616597708739083</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0447033338835835</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>360.998332998523</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.59260208253202</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.464887981582919</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.42577598394627</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.000613045770660739</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0447033338835835</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>233.661865050741</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.34983934176954</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.689490208735715</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.40808224975134</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.000654211720623228</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0465982383461458</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1302.86685555919</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8.25922688795293</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.4418873164447</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.38231286609002</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.000718782311788442</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0507522814932361</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="n">
+        <v>321.366484996525</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9.28559378034421</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.75581257869103</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.36945765185335</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.000753162634199992</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0518278016076604</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="n">
+        <v>107.430507582046</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.46730305126865</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.731974114428485</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.37075178293031</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.000749633681176916</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0518278016076604</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="n">
+        <v>158.089076071831</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.98320832909423</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.588095512546113</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.37225550405594</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.000745552488450597</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0518278016076604</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>27.3574215451742</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.03201809709606</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.50366544742035</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.34650111547677</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.000818383502928647</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0558426390233665</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="n">
+        <v>124.775502632165</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.22046088986061</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.668581223798759</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.32115352753154</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.000896462097672346</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0596661658450775</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>778.671766693407</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.31419307129084</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.395988219442059</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.31876810159281</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.00090415481512898</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0596889195028237</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="n">
+        <v>717.137417837374</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.33605528059381</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.403521192740328</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.3109916024995</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.000929659983850997</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0608777344263717</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="n">
+        <v>28.9613346800249</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.12720513435056</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.26178244287908</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.27093244769936</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.00107193512446135</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0690802635763983</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>24.6346252948933</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.59666452702178</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.41002830885713</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.25998031255664</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.00111419947540196</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0712385806319992</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="n">
+        <v>32.7181274005208</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.23517820252044</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.30865613010921</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.23628041399005</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.00121098357899187</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0762262531892554</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="n">
+        <v>12.7172506713147</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.54158729128837</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.33556519226135</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.22902024583883</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.00124215100754805</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.077586662933001</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="n">
+        <v>93.703960993061</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.49451732218152</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.774811326476403</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.21951581880688</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.00128407275869425</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0789899303075552</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.4466708697974</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.51055996468944</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.35106421459282</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.19453629470099</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.00140055673222529</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0855076741779648</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="n">
+        <v>84.6400245616869</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.60909675411846</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.817851298558209</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.19018476673943</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.00142181860244475</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0859380933667672</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="n">
+        <v>75.8756340540759</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.51801857150617</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.789650917503837</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.18877432507249</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.00142877371976768</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0859380933667672</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18.0007721988836</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.54534796503693</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.05436139059647</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.18607426862541</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.00144217570119518</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0861063727478297</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="n">
+        <v>74.5251979553127</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.67233319180273</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.84035413947759</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.18000836345496</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.00147270801808546</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.086691378797413</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="n">
+        <v>98.4074006297333</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.24651891515046</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.707245243972958</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.17643552119292</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.00149096929569856</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0870983502235417</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="n">
+        <v>62.7412417734484</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.69117561850195</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.849086716641531</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.16949442943425</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.00152704385318037</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0885685434844616</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="n">
+        <v>120.588731106627</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.12696817268612</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.672828988977301</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.16123146822064</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.00157103600763499</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0898367069154654</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>251.077902645422</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.59931665349492</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5070613467386</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.15408907380077</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.00160999937373278</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0914209434595114</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27.4489321385912</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.10009918700684</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.31340055910254</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.12174314118495</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.00179783721895748</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0999893028625666</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>46.8211951804015</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.02929560106296</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.969959565544367</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.12311534281621</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.00178947604446126</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0999893028625666</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="n">
+        <v>575.868891539229</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.53360651452627</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.491636929759872</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.1193883569229</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.00181226924492875</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.100106301148445</v>
+      </c>
+      <c r="H129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11.6349314652454</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.41326135417073</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.40123490051715</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.08727036766547</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.00202003776195325</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.110085279376245</v>
+      </c>
+      <c r="H130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11.6349314652454</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.41326135417073</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.40123490051715</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.08727036766547</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.00202003776195325</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.110085279376245</v>
+      </c>
+      <c r="H131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="n">
+        <v>108.978604724249</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.07135631371408</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.675845810360636</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.06483562072951</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.00217789661946036</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.117896803666788</v>
+      </c>
+      <c r="H132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="n">
+        <v>82.011619934936</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.30990663955135</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.754372369276438</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.06202445056003</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.00219845493940799</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.118221550384059</v>
+      </c>
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="n">
+        <v>16.2975416228561</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.44747888778715</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.1089138262754</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.05725099217268</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.00223377148058263</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.119330423831125</v>
+      </c>
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="n">
+        <v>196.975342675923</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.69690603365492</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.55554496769536</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.05448907348476</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.00225444226583283</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.119647524173612</v>
+      </c>
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="n">
+        <v>237.99420632038</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.13786919286187</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.702973967908155</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.0411783230374</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.00235654219243161</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.124254042873667</v>
+      </c>
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="n">
+        <v>16.1067135882623</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.37863962510618</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.11347372898043</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.01808323313455</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.00254379027651576</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.133261787389084</v>
+      </c>
+      <c r="H137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="n">
+        <v>88.2271485220749</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.25489164419703</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.748150503041833</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.0139545920628</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.00257866397606713</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.134222765933751</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="n">
+        <v>93.5593063764653</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.20662793279441</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.734502901130761</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.00424672169071</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.00266239328715896</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.137698302495101</v>
+      </c>
+      <c r="H139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="n">
+        <v>121.985131562744</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.93579376078991</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.645142807710607</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.00056628959313</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00269478090551402</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.138491271852999</v>
+      </c>
+      <c r="H140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="n">
+        <v>51.3674896617279</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.85705874303247</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9562486228889</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.98777815167051</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.00281013454922841</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.143511273834809</v>
+      </c>
+      <c r="H141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="n">
+        <v>25.7143770618169</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3.93416383029253</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.31830487833427</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.98425947969144</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.00284265592099784</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.14426478799064</v>
+      </c>
+      <c r="H142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="n">
+        <v>360.563420955219</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.37300976338905</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.460696435566347</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.980291700545</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.00287974015004026</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.144342530977327</v>
+      </c>
+      <c r="H143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="n">
+        <v>673.349566299856</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.21819789370285</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.408599991760533</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.98139480731266</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.00286938606007893</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.144342530977327</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="n">
+        <v>128.326062683192</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.92650426614678</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.647098731588237</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.97714115652548</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.00290950018974326</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.144939518654695</v>
+      </c>
+      <c r="H145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1007.43100179848</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.27114611679962</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.43755716840691</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.97111392205214</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.00296721690182846</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.146913422212482</v>
+      </c>
+      <c r="H146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="n">
+        <v>24.1392209885672</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.09923173949402</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.38312457354472</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.96374731380006</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0030391773566741</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.14956436446178</v>
+      </c>
+      <c r="H147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="n">
+        <v>59.4002061226776</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.60387798783525</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.882458368734306</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.95070915534514</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.00317045305683565</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.153238564413723</v>
+      </c>
+      <c r="H148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="n">
+        <v>62.402669031501</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.54686556674194</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.862504061737449</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.95287370776141</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.00314830737097305</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.153238564413723</v>
+      </c>
+      <c r="H149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="n">
+        <v>255.183530443833</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.5517463484925</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.527609424988886</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.94108913714949</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.00327060403209494</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.157143815033201</v>
+      </c>
+      <c r="H150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="n">
+        <v>55.9465006040039</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.48679396532514</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.18850936600918</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.93375388116058</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.00334889645106247</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.159401993004416</v>
+      </c>
+      <c r="H151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="n">
+        <v>17.5851196594809</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.91606284707239</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.68757738090106</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.91308884718964</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.00357872763392878</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.167852872647358</v>
+      </c>
+      <c r="H152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="n">
+        <v>29.5312513446605</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.72226819904547</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.27846593290182</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.91151144762755</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.00359684727101481</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.167852872647358</v>
+      </c>
+      <c r="H153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" t="n">
+        <v>73.3146997161431</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.68091711629139</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.922414447784292</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.90641275484263</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.00365598836107754</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.169637859953998</v>
+      </c>
+      <c r="H154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="n">
+        <v>100.76959555499</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.02747499485399</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.699646077738493</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.89785801616657</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.00375720640311731</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.172364497137359</v>
+      </c>
+      <c r="H155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B156" t="n">
+        <v>10.2820324576587</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.234921281011</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.49983940458736</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.89415442757422</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.00380181133213318</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.173430943915289</v>
+      </c>
+      <c r="H156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="n">
+        <v>187.396260269336</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.1780569191145</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.757655961401396</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.87473078821404</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.00404372121213369</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.18241675690292</v>
+      </c>
+      <c r="H157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="n">
+        <v>192.760885037404</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.58812782662646</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.555893993247689</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.85688970544217</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.00427814469093162</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.19087107082618</v>
+      </c>
+      <c r="H158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="n">
+        <v>10.0114526561414</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7.19644648151716</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.5221863289297</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.8532572708738</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.00432735723983976</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.190968156453798</v>
+      </c>
+      <c r="H159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" t="n">
+        <v>10.0114526561414</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.19644648151716</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.5221863289297</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.8532572708738</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.00432735723983976</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.190968156453798</v>
+      </c>
+      <c r="H160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" t="n">
+        <v>82.7868999604496</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.13099735531546</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.750264639121574</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.8403275913556</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.00450672267194411</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.197808584303709</v>
+      </c>
+      <c r="H161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="n">
+        <v>78.7185934290523</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.49016000558961</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.878083508277062</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.83590339884152</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.00456962654127339</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.199491223199677</v>
+      </c>
+      <c r="H162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="n">
+        <v>51.382024988012</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.61162635314571</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.924841431868129</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.82386392213244</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.00474485252255728</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.206033168359172</v>
+      </c>
+      <c r="H163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="n">
+        <v>299.294621552734</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.38160948297254</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.48968829667059</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.82140596858482</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.00478136524556295</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.206514286138144</v>
+      </c>
+      <c r="H164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="n">
+        <v>66.430250614159</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.46784201472556</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.876381471362757</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.81594499126973</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.00486339931112255</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.206594690148507</v>
+      </c>
+      <c r="H165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="n">
+        <v>117.906659805086</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.87169491350563</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.667602548196364</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.80360660480149</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.00505345229518059</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.212110699722525</v>
+      </c>
+      <c r="H166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.5485557501201</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.39662733163686</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.92982497710479</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.79643356038076</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.00516700334669961</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.213248263632313</v>
+      </c>
+      <c r="H167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="n">
+        <v>22.962823749935</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.13952436775017</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.48125040068326</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.79461485096694</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.00519615799057103</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.213248263632313</v>
+      </c>
+      <c r="H168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" t="n">
+        <v>583.343315949253</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.18172347544511</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.422497825990322</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.79699303227226</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.00515806456420808</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.213248263632313</v>
+      </c>
+      <c r="H169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="n">
+        <v>849.935311846048</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.14891717727451</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.411152462826227</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.7943823305276</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.00519989608364506</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.213248263632313</v>
+      </c>
+      <c r="H170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" t="n">
+        <v>13.5917436076827</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.18134399805432</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.2145906822043</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.79119028528635</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.00525145890957331</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.213460328896443</v>
+      </c>
+      <c r="H171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" t="n">
+        <v>280.217952455953</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.36517585344842</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4909650718339</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.78059668959562</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00542590991275068</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.219195962644456</v>
+      </c>
+      <c r="H172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" t="n">
+        <v>82.5618663949959</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.2020401302283</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.793111696277005</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.77645650740626</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.00549549870271667</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.22033753790965</v>
+      </c>
+      <c r="H173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9.47029305310672</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.11627472404404</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2.57007089110699</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.76890211420545</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.00562455307723976</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.222787175547253</v>
+      </c>
+      <c r="H174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" t="n">
+        <v>36.5272993659269</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.99677852798832</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.08347936377869</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.76588426893235</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.00567686775648979</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.223767797003384</v>
+      </c>
+      <c r="H175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" t="n">
+        <v>14.5459883109743</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.21765495215778</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.89612715845478</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.75174316706156</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.00592789915553885</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.231416063187382</v>
+      </c>
+      <c r="H176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" t="n">
+        <v>123.501381552589</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.81121806712748</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.660316134586065</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.7429559452805</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.00608888537965234</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.236563393697497</v>
+      </c>
+      <c r="H177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" t="n">
+        <v>37.0056009068232</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.29963766098854</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.20981547258379</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.72738920584438</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.00638376918700796</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.245492043438341</v>
+      </c>
+      <c r="H178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" t="n">
+        <v>268.610288982398</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.3544638608178</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.496856404718229</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.72606702450767</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.00640939817843944</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.245492043438341</v>
+      </c>
+      <c r="H179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" t="n">
+        <v>160.788902966133</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.19219431380816</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.804929816975516</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.72346019190248</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.00646020005571906</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.24627617113821</v>
+      </c>
+      <c r="H180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" t="n">
+        <v>13.1303357715716</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.07052400794901</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.23488287637677</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.71626046810589</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.00660239519015479</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.249355576483986</v>
+      </c>
+      <c r="H181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" t="n">
+        <v>44.8447128333884</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.89869585939119</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.06669467465827</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.71745601459934</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.00657858988760396</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.249355576483986</v>
+      </c>
+      <c r="H182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" t="n">
+        <v>120.447923938443</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.77334586665466</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.653538695093865</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.71345198068181</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.0066586217879652</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.250314856103136</v>
+      </c>
+      <c r="H183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>191</v>
+      </c>
+      <c r="B184" t="n">
+        <v>181.631941226036</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.52591750612148</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.563607797827802</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.70741020972832</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.0067810411312824</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.253742184267341</v>
+      </c>
+      <c r="H184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" t="n">
+        <v>33.9037160265005</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.34591731620396</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.2372890002551</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.70423265341736</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.00684623361759713</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.253842086643327</v>
+      </c>
+      <c r="H185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" t="n">
+        <v>240.782823931389</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.4037876375941</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.5197582628806</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.70084717809782</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.00691631101121945</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.254534669778509</v>
+      </c>
+      <c r="H186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="n">
+        <v>24.9483929539733</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.56692711781296</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.32730991722931</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.68733554350194</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.00720245597136299</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.26344118237598</v>
+      </c>
+      <c r="H187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>195</v>
+      </c>
+      <c r="B188" t="n">
+        <v>28.1927831330355</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.32720773501782</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.24432740113563</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.67390056023942</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.00749746792404955</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.271783212246796</v>
+      </c>
+      <c r="H188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" t="n">
+        <v>281.529048145565</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.3154490078735</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.492503628448914</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.6709427746073</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.00756385406220847</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.271928808182378</v>
+      </c>
+      <c r="H189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>197</v>
+      </c>
+      <c r="B190" t="n">
+        <v>46.7726633839024</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.23601031843154</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.21252811337927</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.66881260955913</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.00761199058043593</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.272287944991805</v>
+      </c>
+      <c r="H190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" t="n">
+        <v>26.5548735279698</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.54630106158718</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.33074362061025</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.66490179375117</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.00770108085291228</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.273068893125099</v>
+      </c>
+      <c r="H191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" t="n">
+        <v>49.9951295102102</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.47782210467575</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.9311780880337</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.660954050055</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0077919589960405</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.275090030642821</v>
+      </c>
+      <c r="H192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" t="n">
+        <v>65.6563551282332</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.1942274093701</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.834380348058825</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.62976880325015</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.00854429537274733</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.297766860200465</v>
+      </c>
+      <c r="H193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>201</v>
+      </c>
+      <c r="B194" t="n">
+        <v>83.9411640856826</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.96002163818476</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.747539531936921</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.62196386203981</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.00874247006238523</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.303371183361402</v>
+      </c>
+      <c r="H194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" t="n">
+        <v>19.2857827963626</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.93426221897298</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.50551626615004</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.61323129309909</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.0089690581037835</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.309909582139243</v>
+      </c>
+      <c r="H195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>203</v>
+      </c>
+      <c r="B196" t="n">
+        <v>15.2296532127484</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.63136393453844</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.77493287518785</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.60931779408744</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.00907229456843075</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.310836324589982</v>
+      </c>
+      <c r="H196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" t="n">
+        <v>53.6669310551686</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.39902977622306</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.92271613103948</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.5999651415224</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.00932332305360884</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.316772441317096</v>
+      </c>
+      <c r="H197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>205</v>
+      </c>
+      <c r="B198" t="n">
+        <v>102.989076120862</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.94674918765542</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.748763943120833</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.59995049914051</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.00932372087127906</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.316772441317096</v>
+      </c>
+      <c r="H198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>206</v>
+      </c>
+      <c r="B199" t="n">
+        <v>68.6041849439677</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.21722749832464</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.853659440760092</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.59732088987435</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.00939541057353371</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.31787805773789</v>
+      </c>
+      <c r="H199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>207</v>
+      </c>
+      <c r="B200" t="n">
+        <v>69.8693162762262</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.16929804722594</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.835943190550102</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2.59503046588418</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.00945825347941192</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.31867642428558</v>
+      </c>
+      <c r="H200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>208</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12.0480165655022</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.94003105317891</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.29128209378732</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.59244859866228</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.00952954204920443</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.319751576196446</v>
+      </c>
+      <c r="H201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>209</v>
+      </c>
+      <c r="B202" t="n">
+        <v>86.3020790016739</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.01376757899042</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.777214086110972</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.59100756789795</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.00956953870550966</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.319772239871352</v>
+      </c>
+      <c r="H202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.7774367639849</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.90549319579336</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.30672183619951</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.56012367989852</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.010463491773149</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.345380297552722</v>
+      </c>
+      <c r="H203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>211</v>
+      </c>
+      <c r="B204" t="n">
+        <v>35.7613152580834</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.8116477904066</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.10272622005836</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.5497242554528</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.0107808150506522</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.354413838912128</v>
+      </c>
+      <c r="H204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>212</v>
+      </c>
+      <c r="B205" t="n">
+        <v>187.28098247566</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.5610886207945</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.612957437219559</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.54681406245067</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.0108711340114936</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.355036812444292</v>
+      </c>
+      <c r="H205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>213</v>
+      </c>
+      <c r="B206" t="n">
+        <v>380.811900709349</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.38630486818773</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.544439313483088</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.54629824455319</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0108872125983533</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.355036812444292</v>
+      </c>
+      <c r="H206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>214</v>
+      </c>
+      <c r="B207" t="n">
+        <v>335.051944345457</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.17222507845226</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.468559336533912</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2.50176442352765</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0123576122139328</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.393505141871116</v>
+      </c>
+      <c r="H207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" t="n">
+        <v>108.375971598664</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.84970695505635</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.74081710091409</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.49684699877204</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.0125303007605383</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.397445477248324</v>
+      </c>
+      <c r="H208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>216</v>
+      </c>
+      <c r="B209" t="n">
+        <v>47.2315037808677</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.04978030240006</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.22559720353395</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.48840344413822</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.0128318075545964</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.402294507117076</v>
+      </c>
+      <c r="H209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>217</v>
+      </c>
+      <c r="B210" t="n">
+        <v>109.865379138723</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.77638964501551</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.720172741775596</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.46661605191526</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.0136396521715948</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.424203411941304</v>
+      </c>
+      <c r="H210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>218</v>
+      </c>
+      <c r="B211" t="n">
+        <v>138.770681344841</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.56177318303471</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.633485429189881</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.46536559654095</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.0136873514690421</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.424203411941304</v>
+      </c>
+      <c r="H211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>219</v>
+      </c>
+      <c r="B212" t="n">
+        <v>22.9745825764285</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.45739447448371</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.40353947416747</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.46333967666604</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.0137649440403286</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.424986104971361</v>
+      </c>
+      <c r="H212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>220</v>
+      </c>
+      <c r="B213" t="n">
+        <v>45.1899095235376</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.51623040322203</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.02411395096518</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.45698283950784</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.0140109379250409</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.429316286608799</v>
+      </c>
+      <c r="H213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>221</v>
+      </c>
+      <c r="B214" t="n">
+        <v>12.5721779334294</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.08175636762929</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2.07675734094742</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.44696684943989</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.0144064088938854</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.436492687381902</v>
+      </c>
+      <c r="H214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" t="n">
+        <v>64.6391478324809</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.41004347635211</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.984749817234802</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.44736625909672</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.0143904521076609</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.436492687381902</v>
+      </c>
+      <c r="H215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" t="n">
+        <v>10.6153657909921</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.81710897126268</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2.38086160044838</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.44327892480906</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.0145544837085175</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.439339805625138</v>
+      </c>
+      <c r="H216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" t="n">
+        <v>617.625957364065</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.0890176002651</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.44695916357636</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.43650357574344</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.014830022833123</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.445999205203552</v>
+      </c>
+      <c r="H217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>225</v>
+      </c>
+      <c r="B218" t="n">
+        <v>290.975372358383</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.21826054919683</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.500356356743951</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.43478579371833</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.0149006077130363</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.446063851679749</v>
+      </c>
+      <c r="H218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" t="n">
+        <v>10.6951175579156</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.75851450679757</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2.37487314577073</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.42476719948287</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.0153182061580726</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.455618439573442</v>
+      </c>
+      <c r="H219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>227</v>
+      </c>
+      <c r="B220" t="n">
+        <v>170.900050698114</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.38697042475942</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.572377379675181</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.42317476897237</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.015385522851262</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.455950531212582</v>
+      </c>
+      <c r="H220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" t="n">
+        <v>12.3015981319121</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.04931973154753</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.09289717364096</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.41259809375315</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.0158392746013886</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.464313753658035</v>
+      </c>
+      <c r="H221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>229</v>
+      </c>
+      <c r="B222" t="n">
+        <v>83.6024868134128</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.93064184080433</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.804444764251654</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.3999681850131</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.0163964968669716</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.47891926100651</v>
+      </c>
+      <c r="H222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" t="n">
+        <v>759.965801399439</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.00259605810324</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.418338958276557</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.39661173856162</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.0165474473108991</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.481595957578856</v>
+      </c>
+      <c r="H223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224" t="n">
+        <v>48.1181736650188</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.32908288438919</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.972996723411343</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.39372120002973</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.0166784210967994</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.482594405043849</v>
+      </c>
+      <c r="H224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" t="n">
+        <v>40.6319607460403</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.7266093238908</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.14058706068627</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.39053152352109</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.0168240047949937</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.482724095177912</v>
+      </c>
+      <c r="H225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" t="n">
+        <v>152.805860714614</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.47779531512332</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.618100212707058</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.39086686065211</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.0168086469910828</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.482724095177912</v>
+      </c>
+      <c r="H226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" t="n">
+        <v>36.2685829212255</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.55428528071359</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.07253676544839</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.38153633796016</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.0172405896964607</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.487782537753522</v>
+      </c>
+      <c r="H227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" t="n">
+        <v>33.4058488113509</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.66854442865638</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.12255132988436</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.37721372521227</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.0174439775586323</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.488431371641705</v>
+      </c>
+      <c r="H228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" t="n">
+        <v>44.5206754177251</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.42007044586384</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.0178975894519</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.37751859415146</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.0174295641963376</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.488431371641705</v>
+      </c>
+      <c r="H229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" t="n">
+        <v>16.8048092859981</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.25183876561899</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.80327553315863</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.35784198667158</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.0183815153650989</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.509412644247793</v>
+      </c>
+      <c r="H230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" t="n">
+        <v>25.5524106191464</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.16400143965084</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.34442772677246</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2.35341876446315</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.0186016719050304</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.513760462138934</v>
+      </c>
+      <c r="H231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>239</v>
+      </c>
+      <c r="B232" t="n">
+        <v>36.8723915257537</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.67350597651393</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.13704849541946</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.35126820648724</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.018709542487195</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.514651210765486</v>
+      </c>
+      <c r="H232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" t="n">
+        <v>44.4723526818708</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.34073340430444</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.99736893303319</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.34690827714658</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.0189299141664474</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.51580839943474</v>
+      </c>
+      <c r="H233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234" t="n">
+        <v>21.0661977001678</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.35602934587804</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.43603971083228</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2.33700316263051</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.019439019635931</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.526407654155874</v>
+      </c>
+      <c r="H234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" t="n">
+        <v>222.093475854315</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.57872700042177</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.675749984455226</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2.33625902587996</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.0194777456331545</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.526407654155874</v>
+      </c>
+      <c r="H235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>243</v>
+      </c>
+      <c r="B236" t="n">
+        <v>457.953749797206</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.07209889774189</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.459029900666044</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.33557529953124</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.019513387179916</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.526407654155874</v>
+      </c>
+      <c r="H236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" t="n">
+        <v>9.88337815336357</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5.63765178906431</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2.43393655773901</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2.31626899688025</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.0205435860058263</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.541198477949674</v>
+      </c>
+      <c r="H237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238" t="n">
+        <v>22.1145204360222</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.17855437216793</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.37117512818061</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.31812429123149</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.0204425670912064</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.541198477949674</v>
+      </c>
+      <c r="H238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1394.62927533402</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.12647145092836</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.34965208170374</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.31650178094909</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.0205308873099293</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.541198477949674</v>
+      </c>
+      <c r="H239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>247</v>
+      </c>
+      <c r="B240" t="n">
+        <v>29.8908788307714</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.73344694637111</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.18058622722758</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2.31533020064972</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.0205948681879864</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.541198477949674</v>
+      </c>
+      <c r="H240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>248</v>
+      </c>
+      <c r="B241" t="n">
+        <v>95.8432386047086</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.62719058001524</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.703430562822121</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2.31322132704477</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.0207104735739308</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.542480791678447</v>
+      </c>
+      <c r="H241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>249</v>
+      </c>
+      <c r="B242" t="n">
+        <v>187.761295738079</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.30724436238583</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.566167974450602</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.30893378180629</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.0209472560468372</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.546918710933498</v>
+      </c>
+      <c r="H242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>250</v>
+      </c>
+      <c r="B243" t="n">
+        <v>19.3002135923243</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3.42032057775777</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.48631078170071</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2.30121494095876</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.0213794847838886</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.553755556396085</v>
+      </c>
+      <c r="H243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>251</v>
+      </c>
+      <c r="B244" t="n">
+        <v>38.9234907613987</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.38587311921527</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.03706121004358</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.30060973846954</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.0214137000872378</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.553755556396085</v>
+      </c>
+      <c r="H244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>252</v>
+      </c>
+      <c r="B245" t="n">
+        <v>23.9432580756817</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3.01664719356775</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.31319490006598</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2.29718162430892</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0216084109396814</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.557016815334009</v>
+      </c>
+      <c r="H245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246" t="n">
+        <v>15.2754085094569</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.92557423363775</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.71097388844715</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.29435075552236</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0217703593466797</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.559415562958985</v>
+      </c>
+      <c r="H246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>254</v>
+      </c>
+      <c r="B247" t="n">
+        <v>100.660217417875</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.58200120532082</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.690238761482141</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2.2919622797245</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.021907819894702</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.560820974303804</v>
+      </c>
+      <c r="H247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>255</v>
+      </c>
+      <c r="B248" t="n">
+        <v>6.76449503793337</v>
+      </c>
+      <c r="C248" t="n">
+        <v>6.63083775751812</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2.90047217975378</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2.2861235504355</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.0222470315962271</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.56628807699487</v>
+      </c>
+      <c r="H248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>256</v>
+      </c>
+      <c r="B249" t="n">
+        <v>34.5052707828502</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2.61964722649671</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.14901628068026</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2.27990435866216</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.0226133615039469</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.572521234622075</v>
+      </c>
+      <c r="H249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>257</v>
+      </c>
+      <c r="B250" t="n">
+        <v>35.8699286169303</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2.44831687830958</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.07555473944855</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2.27632940334106</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.0228263015333963</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.573837673223462</v>
+      </c>
+      <c r="H250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>258</v>
+      </c>
+      <c r="B251" t="n">
+        <v>22.8779371047199</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.04263484610851</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.34068021405906</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2.26947098510285</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.023239699729067</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.580634959384689</v>
+      </c>
+      <c r="H251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>259</v>
+      </c>
+      <c r="B252" t="n">
+        <v>48.018856223842</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.14099639070258</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.947878676990004</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2.25872407796041</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.0239005537514303</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.588371602652137</v>
+      </c>
+      <c r="H252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" t="n">
+        <v>53.9181542430774</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2.04166388318589</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.902744538099426</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2.26161864959523</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.0237209747560857</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.588371602652137</v>
+      </c>
+      <c r="H253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" t="n">
+        <v>73.9179526030477</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.76595478992262</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.781132252011357</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.26076286745992</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.0237739451302144</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.588371602652137</v>
+      </c>
+      <c r="H254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" t="n">
+        <v>207.630452156125</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.24177303252354</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.55013095015064</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.2572317230716</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.0239935991510211</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.588371602652137</v>
+      </c>
+      <c r="H255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>263</v>
+      </c>
+      <c r="B256" t="n">
+        <v>31.4177121681668</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2.58407903464487</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.14982496842288</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2.24736729990238</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.0246165630437218</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.59667609526872</v>
+      </c>
+      <c r="H256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" t="n">
+        <v>41.8489784030892</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.25876097507013</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.00585925943671</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.24560340214502</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.0247294223798189</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.59762770751229</v>
+      </c>
+      <c r="H257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258" t="n">
+        <v>366.066487092356</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.02386035858726</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.458260519763675</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.23423208945702</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.0254678060509294</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.611830133531203</v>
+      </c>
+      <c r="H258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>266</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6.49391523641604</v>
+      </c>
+      <c r="C259" t="n">
+        <v>6.57194263266575</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.94557299071338</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2.23112537132346</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.0256728255882868</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.613127481696732</v>
+      </c>
+      <c r="H259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" t="n">
+        <v>10.4872912882142</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4.71394554837267</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2.11257377167977</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2.23137559102823</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.0256562603130057</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.613127481696732</v>
+      </c>
+      <c r="H260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>268</v>
+      </c>
+      <c r="B261" t="n">
+        <v>126.838875925301</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.46359614992223</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.660174876107982</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.21698250401585</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.0266242871391237</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.632132197572177</v>
+      </c>
+      <c r="H261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" t="n">
+        <v>45.9506542227671</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2.42166237370862</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.09629360100723</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.20895421763266</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.0271778254762473</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.643393419437691</v>
+      </c>
+      <c r="H262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" t="n">
+        <v>19.1237118233698</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.31750559691919</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.50545683245512</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.2036537517379</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.0275487039848784</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.64839268509337</v>
+      </c>
+      <c r="H263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>271</v>
+      </c>
+      <c r="B264" t="n">
+        <v>19.7132986925812</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.23979644197195</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.47372228209671</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.19837650643553</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.027922286471052</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.653397596959488</v>
+      </c>
+      <c r="H264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>272</v>
+      </c>
+      <c r="B265" t="n">
+        <v>64.1556068829705</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2.12612850371473</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.968599065081754</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.19505529208339</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.0281596317130188</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.657058073303772</v>
+      </c>
+      <c r="H265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B266" t="n">
+        <v>11.6323640260996</v>
+      </c>
+      <c r="C266" t="n">
+        <v>4.27396460846135</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.95102950754787</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.19062017869377</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.0284792896775577</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.660719520519338</v>
+      </c>
+      <c r="H266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>274</v>
+      </c>
+      <c r="B267" t="n">
+        <v>34.9353541182145</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.61123586469492</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.19170877408309</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.19116945472188</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.0284395321281696</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.660719520519338</v>
+      </c>
+      <c r="H267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>275</v>
+      </c>
+      <c r="B268" t="n">
+        <v>8.72130718037072</v>
+      </c>
+      <c r="C268" t="n">
+        <v>5.52544478893434</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2.53348621912741</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.18096500672398</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.0291860048364991</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.664565503139491</v>
+      </c>
+      <c r="H268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>276</v>
+      </c>
+      <c r="B269" t="n">
+        <v>19.966880258991</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.12527614144722</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.43095058145849</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.18405595688832</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.0289581365062903</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.664565503139491</v>
+      </c>
+      <c r="H269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>277</v>
+      </c>
+      <c r="B270" t="n">
+        <v>26.6294904166017</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.75114474983336</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.25999861237545</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.18345061876432</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.0290026417348685</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.664565503139491</v>
+      </c>
+      <c r="H270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>278</v>
+      </c>
+      <c r="B271" t="n">
+        <v>204.255453101151</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.60445996152153</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.737298763991255</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.17613271563894</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.0295453382553394</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.664565503139491</v>
+      </c>
+      <c r="H271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>279</v>
+      </c>
+      <c r="B272" t="n">
+        <v>17.343401449887</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.44158865644673</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.58453519952627</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.17198624396332</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.0298567005158476</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.668873526394533</v>
+      </c>
+      <c r="H272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>280</v>
+      </c>
+      <c r="B273" t="n">
+        <v>54.7897661493323</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.18549308327519</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.00699958912473</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2.1703018619648</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.0299839856659618</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.668873526394533</v>
+      </c>
+      <c r="H273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>281</v>
+      </c>
+      <c r="B274" t="n">
+        <v>17.5172312493733</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.32366139136065</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.53284483090647</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2.16829604950631</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.0301361688209953</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.67042655020954</v>
+      </c>
+      <c r="H274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>282</v>
+      </c>
+      <c r="B275" t="n">
+        <v>110.638849082744</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.6035770535099</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.741348520535554</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.16305423035237</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.0305370088229427</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.671979706347682</v>
+      </c>
+      <c r="H275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>283</v>
+      </c>
+      <c r="B276" t="n">
+        <v>172.573132252338</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1.29762840596812</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.599711603596565</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2.1637540414193</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.0304832310419533</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.671979706347682</v>
+      </c>
+      <c r="H276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>284</v>
+      </c>
+      <c r="B277" t="n">
+        <v>39.1117513568467</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2.21320049649514</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.03047045132546</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2.14775736038658</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.0317330359667538</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.68896324077551</v>
+      </c>
+      <c r="H277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>285</v>
+      </c>
+      <c r="B278" t="n">
+        <v>155.390626296501</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1.26026590368055</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.588482567466619</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.14155180348997</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.0322295656309381</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.697877527795246</v>
+      </c>
+      <c r="H278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>286</v>
+      </c>
+      <c r="B279" t="n">
+        <v>14.7029244056755</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.71154521704714</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.75233040837942</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2.11806243805336</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.0341697801324514</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.723483678918958</v>
+      </c>
+      <c r="H279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>287</v>
+      </c>
+      <c r="B280" t="n">
+        <v>56.6815709117751</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.86029667555109</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.876619662277659</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2.12212519933401</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.0338272257963471</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.723483678918958</v>
+      </c>
+      <c r="H280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>288</v>
+      </c>
+      <c r="B281" t="n">
+        <v>35.4058488113509</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2.34208665947391</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.10850990278646</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2.1128243000686</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.0346158089949998</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.7263058631509</v>
+      </c>
+      <c r="H281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>289</v>
+      </c>
+      <c r="B282" t="n">
+        <v>69.8904755507121</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.72245099874565</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.81588133921798</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.11115381116158</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.0347590934407178</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.72743257406863</v>
+      </c>
+      <c r="H282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" t="n">
+        <v>78.461366054261</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.85207265031751</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.879555248151606</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.10569222821381</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.0352310953631415</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.735415152567375</v>
+      </c>
+      <c r="H283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>291</v>
+      </c>
+      <c r="B284" t="n">
+        <v>13.8114332341999</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.65811442851197</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.74424808819783</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.09724433884378</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.0359719513397057</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.741781383104231</v>
+      </c>
+      <c r="H284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285" t="n">
+        <v>159.125285903598</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.22558921854245</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.583520074702652</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.10033771188932</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.035699144091341</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.741781383104231</v>
+      </c>
+      <c r="H285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>293</v>
+      </c>
+      <c r="B286" t="n">
+        <v>211.946891784674</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.14817985129553</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.54753233484057</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.09700830112592</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.0359928405102299</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.741781383104231</v>
+      </c>
+      <c r="H286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" t="n">
+        <v>29.9993876592959</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2.49566313286228</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.19748188657121</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2.08409259534455</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.0371517454692406</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.757970284447823</v>
+      </c>
+      <c r="H287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>295</v>
+      </c>
+      <c r="B288" t="n">
+        <v>13.5408534326826</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.62476685298187</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.7576407963091</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2.06229103272613</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.0391800362541495</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.786652109232929</v>
+      </c>
+      <c r="H288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>296</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5.68217583186403</v>
+      </c>
+      <c r="C289" t="n">
+        <v>6.37929251402195</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3.10121250134472</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2.05703172912395</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.0396831739007366</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.791713444899217</v>
+      </c>
+      <c r="H289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>297</v>
+      </c>
+      <c r="B290" t="n">
+        <v>22.3825327983937</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2.76722289607736</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.34823057959155</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2.05248489239556</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.0401225617957373</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.792689055429165</v>
+      </c>
+      <c r="H290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>298</v>
+      </c>
+      <c r="B291" t="n">
+        <v>14.7656779374915</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.44342281865763</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.68953120206718</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.03809365251409</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.0415405678422801</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.810839929998351</v>
+      </c>
+      <c r="H291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>299</v>
+      </c>
+      <c r="B292" t="n">
+        <v>101.002846668878</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.3948375524724</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.688365590656098</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.02630342278287</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.0427337007303342</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.820325413546841</v>
+      </c>
+      <c r="H292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" t="n">
+        <v>218.276691260563</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1.06932419358297</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.52728797984652</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.02796997931609</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.0425633120426595</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.820325413546841</v>
+      </c>
+      <c r="H293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" t="n">
+        <v>28.1877527850663</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2.44015203947795</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.21861049816774</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2.00240523378625</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.0452411660434089</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.840847842633917</v>
+      </c>
+      <c r="H294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" t="n">
+        <v>67.40960657067</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1.62169592408408</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.809833981731891</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2.0025041683432</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.0452305352500416</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.840847842633917</v>
+      </c>
+      <c r="H295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" t="n">
+        <v>9.32522031522138</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4.63234994132639</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.31697050599859</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1.99931329696832</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.0455744663546944</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.842971906150612</v>
+      </c>
+      <c r="H296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" t="n">
+        <v>53.0555246635252</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1.81865044201139</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.91066199514407</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1.99706417058029</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.0458182125054716</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.845554285328248</v>
+      </c>
+      <c r="H297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" t="n">
+        <v>12.8401902958009</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3.64194999637896</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.82887472687175</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1.99136110465501</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.0464412021211938</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.853173215439126</v>
+      </c>
+      <c r="H298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" t="n">
+        <v>8.86381247911023</v>
+      </c>
+      <c r="C299" t="n">
+        <v>4.4502932951512</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.23976934463207</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.98694267595767</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.0469287496811859</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.854429996442658</v>
+      </c>
+      <c r="H299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" t="n">
+        <v>40.6986662565898</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.02677223719291</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.02061137317602</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.98584132066434</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.0470509460090406</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.854706222804049</v>
+      </c>
+      <c r="H300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" t="n">
+        <v>261.934729678121</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.04549653477134</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.527997871076645</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.98011505735707</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.047690601587946</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.860550410875827</v>
+      </c>
+      <c r="H301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" t="n">
+        <v>98.6613928968176</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1.46897584130528</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.744359470661639</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1.97347639037836</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.0484413118586722</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.86639526936656</v>
+      </c>
+      <c r="H302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" t="n">
+        <v>22.0007721988836</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.96975320550573</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.50654595583455</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1.97123306727184</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.0486972232457755</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.86905813792461</v>
+      </c>
+      <c r="H303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>311</v>
+      </c>
+      <c r="B304" t="n">
+        <v>31.765267236817</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.69546762009918</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.3707863704652</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.96636593285096</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.0492563556917295</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.874531711570442</v>
+      </c>
+      <c r="H304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" t="n">
+        <v>17.5485557501201</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.44453993161492</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.75605481264746</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.96152187665593</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.0498181755804218</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.87559217686802</v>
+      </c>
+      <c r="H305" t="s">
         <v>9</v>
       </c>
     </row>
